--- a/SPPSApi/Doc/Template/FS0626.xlsx
+++ b/SPPSApi/Doc/Template/FS0626.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>供应商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>预计挽回时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际挽回时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,9 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -458,10 +456,10 @@
     <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
     <col min="10" max="11" width="10.77734375" style="2" customWidth="1"/>
     <col min="12" max="12" width="21.77734375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="15.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -500,9 +498,6 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0626.xlsx
+++ b/SPPSApi/Doc/Template/FS0626.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>供应商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,14 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包装工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发注工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对象月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>号旧区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +77,22 @@
   </si>
   <si>
     <t>预计挽回时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号旧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -452,22 +456,24 @@
     <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.77734375" style="1"/>
-    <col min="7" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -479,25 +485,28 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0626.xlsx
+++ b/SPPSApi/Doc/Template/FS0626.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -139,10 +139,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -447,62 +460,63 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.77734375" style="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" style="3"/>
+    <col min="7" max="7" width="16.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="3" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="21.77734375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="1" t="s">

--- a/SPPSApi/Doc/Template/FS0626.xlsx
+++ b/SPPSApi/Doc/Template/FS0626.xlsx
@@ -8,39 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>供应商代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内制</t>
-  </si>
-  <si>
-    <t>内制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外注</t>
-  </si>
-  <si>
-    <t>外注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,11 +115,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -460,67 +433,67 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13" style="3" customWidth="1"/>
-    <col min="5" max="6" width="8.77734375" style="3"/>
-    <col min="7" max="7" width="16.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="3" customWidth="1"/>
-    <col min="11" max="12" width="10.77734375" style="4" customWidth="1"/>
+    <col min="1" max="2" width="10.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" style="2"/>
+    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" style="3" customWidth="1"/>
     <col min="13" max="13" width="21.77734375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="23.77734375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="5"/>
+    <col min="14" max="14" width="23.77734375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -528,63 +501,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>